--- a/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6501B5-26A3-4858-8D1F-D9560963F946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F17C4647-1953-4973-9CD2-9FFB09C38323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22C41C25-6CEA-4DC9-BAF9-32D2EE73CA5C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5AB85D9-DCE0-485A-8650-DF2F3E057B62}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="634">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1894 +77,1870 @@
     <t>9,63%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>23,31%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
 </sst>
 </file>
@@ -2376,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2F897C-B19F-407E-88CD-EA73D3BB3DCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AC9DEF-C19A-46B5-8ADF-957B6CCA2333}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2823,13 +2799,13 @@
         <v>266910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>499</v>
@@ -2838,13 +2814,13 @@
         <v>496664</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2876,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2912,13 +2888,13 @@
         <v>124048</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -2927,13 +2903,13 @@
         <v>115981</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>220</v>
@@ -2942,13 +2918,13 @@
         <v>240028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2939,13 @@
         <v>488787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>428</v>
@@ -2978,13 +2954,13 @@
         <v>454879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>880</v>
@@ -2993,13 +2969,13 @@
         <v>943665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +2990,13 @@
         <v>348966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>370</v>
@@ -3029,13 +3005,13 @@
         <v>397534</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -3044,13 +3020,13 @@
         <v>746500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3082,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3118,13 +3094,13 @@
         <v>134442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3133,13 +3109,13 @@
         <v>88040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3148,13 +3124,13 @@
         <v>222482</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3145,13 @@
         <v>359680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
@@ -3184,13 +3160,13 @@
         <v>334887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>681</v>
@@ -3199,13 +3175,13 @@
         <v>694567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3196,13 @@
         <v>184387</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>270</v>
@@ -3235,13 +3211,13 @@
         <v>260914</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>454</v>
@@ -3250,13 +3226,13 @@
         <v>445301</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,7 +3288,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3324,13 +3300,13 @@
         <v>225850</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -3339,13 +3315,13 @@
         <v>216702</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>437</v>
@@ -3354,13 +3330,13 @@
         <v>442551</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3351,13 @@
         <v>495215</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>469</v>
@@ -3390,13 +3366,13 @@
         <v>485696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>989</v>
@@ -3405,13 +3381,13 @@
         <v>980911</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3402,13 @@
         <v>221157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -3441,13 +3417,13 @@
         <v>336214</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>565</v>
@@ -3456,13 +3432,13 @@
         <v>557371</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3506,13 @@
         <v>551408</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>452</v>
@@ -3545,28 +3521,28 @@
         <v>476412</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>979</v>
       </c>
       <c r="N24" s="7">
-        <v>1027819</v>
+        <v>1027820</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3557,13 @@
         <v>1693413</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>1554</v>
@@ -3596,28 +3572,28 @@
         <v>1587673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>3203</v>
       </c>
       <c r="N25" s="7">
-        <v>3281085</v>
+        <v>3281086</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3608,13 @@
         <v>1031723</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>1291</v>
@@ -3647,28 +3623,28 @@
         <v>1315113</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>2329</v>
       </c>
       <c r="N26" s="7">
-        <v>2346835</v>
+        <v>2346836</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3686,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3724,7 +3700,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3745,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CF48C1-04CE-478A-BC52-C8B9D0D46C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E4E4CB-6A8C-4AD7-BE96-CF874F84BC99}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3762,7 +3738,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3869,13 +3845,13 @@
         <v>10602</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3884,13 +3860,13 @@
         <v>7797</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3899,13 +3875,13 @@
         <v>18399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3896,13 @@
         <v>57845</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -3935,13 +3911,13 @@
         <v>45350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>102</v>
@@ -3950,13 +3926,13 @@
         <v>103195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +3947,13 @@
         <v>46592</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>51</v>
@@ -3986,13 +3962,13 @@
         <v>58758</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>101</v>
@@ -4001,13 +3977,13 @@
         <v>105350</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4051,13 @@
         <v>51283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -4090,13 +4066,13 @@
         <v>58325</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -4105,13 +4081,13 @@
         <v>109608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4102,13 @@
         <v>329880</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7">
         <v>268</v>
@@ -4141,13 +4117,13 @@
         <v>284251</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M9" s="7">
         <v>581</v>
@@ -4156,13 +4132,13 @@
         <v>614132</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4153,13 @@
         <v>205518</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>228</v>
@@ -4192,13 +4168,13 @@
         <v>241513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>418</v>
@@ -4207,13 +4183,13 @@
         <v>447031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4245,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4281,13 +4257,13 @@
         <v>121338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -4296,13 +4272,13 @@
         <v>96690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M12" s="7">
         <v>197</v>
@@ -4311,13 +4287,13 @@
         <v>218028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4308,13 @@
         <v>579866</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>482</v>
@@ -4347,13 +4323,13 @@
         <v>531164</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>1016</v>
@@ -4362,13 +4338,13 @@
         <v>1111030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4359,13 @@
         <v>314754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -4398,13 +4374,13 @@
         <v>404331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>661</v>
@@ -4413,13 +4389,13 @@
         <v>719085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,7 +4451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4487,13 +4463,13 @@
         <v>105170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -4502,13 +4478,13 @@
         <v>102755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -4517,13 +4493,13 @@
         <v>207925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4514,13 @@
         <v>442440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>357</v>
@@ -4553,13 +4529,13 @@
         <v>392377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>765</v>
@@ -4568,13 +4544,13 @@
         <v>834818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4565,13 @@
         <v>209119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
         <v>259</v>
@@ -4604,13 +4580,13 @@
         <v>280933</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>452</v>
@@ -4619,7 +4595,7 @@
         <v>490052</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>282</v>
@@ -4681,7 +4657,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4693,13 +4669,13 @@
         <v>192788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -4708,13 +4684,13 @@
         <v>193065</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>359</v>
@@ -4723,13 +4699,13 @@
         <v>385853</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4720,13 @@
         <v>553926</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H21" s="7">
         <v>487</v>
@@ -4759,13 +4735,13 @@
         <v>504660</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -4774,13 +4750,13 @@
         <v>1058586</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4771,13 @@
         <v>198660</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>338</v>
@@ -4810,13 +4786,13 @@
         <v>352262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>523</v>
@@ -4825,13 +4801,13 @@
         <v>550922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4875,13 @@
         <v>481181</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H24" s="7">
         <v>412</v>
@@ -4914,13 +4890,13 @@
         <v>458631</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>850</v>
@@ -4929,13 +4905,13 @@
         <v>939813</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4926,13 @@
         <v>1963957</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
         <v>1635</v>
@@ -4965,13 +4941,13 @@
         <v>1757803</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>3491</v>
@@ -4980,13 +4956,13 @@
         <v>3721760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4977,13 @@
         <v>974643</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>1247</v>
@@ -5016,13 +4992,13 @@
         <v>1337796</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>2155</v>
@@ -5031,13 +5007,13 @@
         <v>2312440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,7 +5069,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5114,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9366CB25-D924-4BD9-9BEF-E5D94AD32C07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6743838-A4BA-4CD1-A116-305E3B2153B5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5131,7 +5107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5238,13 +5214,13 @@
         <v>12076</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5253,13 +5229,13 @@
         <v>8472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5268,13 +5244,13 @@
         <v>20547</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5265,13 @@
         <v>67280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -5304,13 +5280,13 @@
         <v>69969</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -5319,13 +5295,13 @@
         <v>137249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5316,13 @@
         <v>36201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -5355,13 +5331,13 @@
         <v>34919</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>70</v>
@@ -5370,13 +5346,13 @@
         <v>71120</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5420,13 @@
         <v>44688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -5459,13 +5435,13 @@
         <v>50052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -5474,13 +5450,13 @@
         <v>94740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5471,13 @@
         <v>327599</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>297</v>
@@ -5510,13 +5486,13 @@
         <v>296480</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>608</v>
@@ -5525,13 +5501,13 @@
         <v>624078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5522,13 @@
         <v>182920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -5561,13 +5537,13 @@
         <v>211040</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>385</v>
@@ -5576,13 +5552,13 @@
         <v>393960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5614,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5650,13 +5626,13 @@
         <v>139578</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -5665,13 +5641,13 @@
         <v>149300</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M12" s="7">
         <v>267</v>
@@ -5680,13 +5656,13 @@
         <v>288879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5677,13 @@
         <v>623647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>545</v>
@@ -5716,13 +5692,13 @@
         <v>571949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>1115</v>
@@ -5731,13 +5707,13 @@
         <v>1195596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5728,13 @@
         <v>252170</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -5767,13 +5743,13 @@
         <v>317229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>535</v>
@@ -5782,13 +5758,13 @@
         <v>569399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,7 +5820,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5856,13 +5832,13 @@
         <v>101464</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -5871,13 +5847,13 @@
         <v>104094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5886,13 +5862,13 @@
         <v>205558</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5883,13 @@
         <v>516217</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>465</v>
@@ -5922,13 +5898,13 @@
         <v>486461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>933</v>
@@ -5937,13 +5913,13 @@
         <v>1002679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5934,13 @@
         <v>141871</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H18" s="7">
         <v>168</v>
@@ -5973,13 +5949,13 @@
         <v>192472</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="M18" s="7">
         <v>308</v>
@@ -6050,7 +6026,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6065,10 +6041,10 @@
         <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -6077,13 +6053,13 @@
         <v>237222</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>459</v>
@@ -6092,13 +6068,13 @@
         <v>486303</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6089,13 @@
         <v>541642</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H21" s="7">
         <v>529</v>
@@ -6128,13 +6104,13 @@
         <v>563441</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -6143,13 +6119,13 @@
         <v>1105084</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,10 +6140,10 @@
         <v>141184</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>453</v>
@@ -6274,7 +6250,7 @@
         <v>461</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>291</v>
       </c>
       <c r="H24" s="7">
         <v>526</v>
@@ -6283,13 +6259,13 @@
         <v>549140</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M24" s="7">
         <v>1027</v>
@@ -6373,10 +6349,10 @@
         <v>477</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H26" s="7">
         <v>892</v>
@@ -6385,13 +6361,13 @@
         <v>994660</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>481</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>482</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>1654</v>
@@ -6400,13 +6376,13 @@
         <v>1749007</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +6438,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6483,7 +6459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9A9A5-E54B-4FD8-A6BA-3A4D1992508E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6392F47F-1D0B-4BA9-B8B4-4A0B5376CEB9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6500,7 +6476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6607,13 +6583,13 @@
         <v>10997</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>487</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6622,13 +6598,13 @@
         <v>15575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -6637,13 +6613,13 @@
         <v>26572</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6634,13 @@
         <v>61213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -6673,13 +6649,13 @@
         <v>70757</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -6688,13 +6664,13 @@
         <v>131971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6685,13 @@
         <v>29772</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H6" s="7">
         <v>93</v>
@@ -6724,13 +6700,13 @@
         <v>44044</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M6" s="7">
         <v>136</v>
@@ -6739,13 +6715,13 @@
         <v>73816</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6789,13 @@
         <v>73084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>509</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -6828,13 +6804,13 @@
         <v>74868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M8" s="7">
         <v>201</v>
@@ -6843,13 +6819,13 @@
         <v>147952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>518</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,13 +6840,13 @@
         <v>340167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H9" s="7">
         <v>547</v>
@@ -6879,13 +6855,13 @@
         <v>356486</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M9" s="7">
         <v>895</v>
@@ -6894,13 +6870,13 @@
         <v>696653</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,13 +6891,13 @@
         <v>135344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>530</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H10" s="7">
         <v>323</v>
@@ -6930,13 +6906,13 @@
         <v>160657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M10" s="7">
         <v>509</v>
@@ -6945,13 +6921,13 @@
         <v>296002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,7 +6983,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7019,13 +6995,13 @@
         <v>171205</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H12" s="7">
         <v>242</v>
@@ -7034,13 +7010,13 @@
         <v>179169</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -7049,13 +7025,13 @@
         <v>350374</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>546</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7046,13 @@
         <v>690038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H13" s="7">
         <v>858</v>
@@ -7085,13 +7061,13 @@
         <v>638145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>542</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="M13" s="7">
         <v>1451</v>
@@ -7100,13 +7076,13 @@
         <v>1328183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7121,13 +7097,13 @@
         <v>177845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H14" s="7">
         <v>416</v>
@@ -7136,13 +7112,13 @@
         <v>242160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -7151,13 +7127,13 @@
         <v>420006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,7 +7189,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7225,13 +7201,13 @@
         <v>136641</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="H16" s="7">
         <v>217</v>
@@ -7240,13 +7216,13 @@
         <v>154532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>569</v>
+        <v>501</v>
       </c>
       <c r="M16" s="7">
         <v>349</v>
@@ -7255,13 +7231,13 @@
         <v>291173</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,13 +7252,13 @@
         <v>509189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>598</v>
@@ -7291,13 +7267,13 @@
         <v>571933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>1039</v>
@@ -7306,13 +7282,13 @@
         <v>1081122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,13 +7303,13 @@
         <v>80489</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="H18" s="7">
         <v>228</v>
@@ -7342,13 +7318,13 @@
         <v>145507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>585</v>
+        <v>215</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="M18" s="7">
         <v>327</v>
@@ -7357,13 +7333,13 @@
         <v>225997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>587</v>
+        <v>342</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,7 +7395,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7431,13 +7407,13 @@
         <v>281113</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="H20" s="7">
         <v>398</v>
@@ -7446,13 +7422,13 @@
         <v>289742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="M20" s="7">
         <v>703</v>
@@ -7461,13 +7437,13 @@
         <v>570855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,13 +7458,13 @@
         <v>561414</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="H21" s="7">
         <v>792</v>
@@ -7497,13 +7473,13 @@
         <v>612200</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="M21" s="7">
         <v>1340</v>
@@ -7512,13 +7488,13 @@
         <v>1173614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,13 +7509,13 @@
         <v>118183</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="H22" s="7">
         <v>367</v>
@@ -7548,13 +7524,13 @@
         <v>243584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="M22" s="7">
         <v>514</v>
@@ -7563,13 +7539,13 @@
         <v>361767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7613,13 @@
         <v>673039</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="H24" s="7">
         <v>1004</v>
@@ -7652,28 +7628,28 @@
         <v>713887</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="M24" s="7">
         <v>1685</v>
       </c>
       <c r="N24" s="7">
-        <v>1386926</v>
+        <v>1386925</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,13 +7664,13 @@
         <v>2162022</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>2921</v>
@@ -7703,28 +7679,28 @@
         <v>2249521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>4913</v>
       </c>
       <c r="N25" s="7">
-        <v>4411543</v>
+        <v>4411542</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>501</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7715,13 @@
         <v>541634</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>1427</v>
@@ -7754,28 +7730,28 @@
         <v>835953</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
         <v>2118</v>
       </c>
       <c r="N26" s="7">
-        <v>1377587</v>
+        <v>1377586</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,7 +7763,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -7817,7 +7793,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -7831,7 +7807,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F17C4647-1953-4973-9CD2-9FFB09C38323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0DA312E-B51D-4040-B8D8-E46A183D5DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5AB85D9-DCE0-485A-8650-DF2F3E057B62}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB78013B-8A97-4A50-8D36-218087C8845D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="639">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -77,28 +77,28 @@
     <t>9,63%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -107,1681 +107,1696 @@
     <t>49,23%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
   </si>
   <si>
     <t>44,61%</t>
   </si>
   <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
   </si>
   <si>
     <t>46,94%</t>
   </si>
   <si>
-    <t>40,49%</t>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>53,34%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
   </si>
   <si>
     <t>31,97%</t>
   </si>
   <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
     <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
   </si>
   <si>
     <t>29,26%</t>
@@ -2352,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AC9DEF-C19A-46B5-8ADF-957B6CCA2333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A428681-73B8-46FA-92F1-09AD62140594}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2975,7 +2990,7 @@
         <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3005,13 @@
         <v>348966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>370</v>
@@ -3005,13 +3020,13 @@
         <v>397534</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -3020,13 +3035,13 @@
         <v>746500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,7 +3097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3094,13 +3109,13 @@
         <v>134442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3109,13 +3124,13 @@
         <v>88040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3124,13 +3139,13 @@
         <v>222482</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3160,13 @@
         <v>359680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
@@ -3160,13 +3175,13 @@
         <v>334887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>681</v>
@@ -3175,13 +3190,13 @@
         <v>694567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3211,13 @@
         <v>184387</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>270</v>
@@ -3211,13 +3226,13 @@
         <v>260914</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>454</v>
@@ -3226,13 +3241,13 @@
         <v>445301</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,7 +3303,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3300,13 +3315,13 @@
         <v>225850</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -3315,13 +3330,13 @@
         <v>216702</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>437</v>
@@ -3330,13 +3345,13 @@
         <v>442551</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3366,13 @@
         <v>495215</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>469</v>
@@ -3366,7 +3381,7 @@
         <v>485696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>138</v>
@@ -3536,13 +3551,13 @@
         <v>1027820</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,16 +3569,16 @@
         <v>1649</v>
       </c>
       <c r="D25" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>1554</v>
@@ -3572,13 +3587,13 @@
         <v>1587673</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>3203</v>
@@ -3587,13 +3602,13 @@
         <v>3281086</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3623,13 @@
         <v>1031723</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>1291</v>
@@ -3623,13 +3638,13 @@
         <v>1315113</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>2329</v>
@@ -3638,13 +3653,13 @@
         <v>2346836</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,7 +3671,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3700,7 +3715,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E4E4CB-6A8C-4AD7-BE96-CF874F84BC99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED12DC72-1A40-4F3B-A5CB-4EE8079BE7D2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,7 +3753,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3845,13 +3860,13 @@
         <v>10602</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3860,13 +3875,13 @@
         <v>7797</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3875,13 +3890,13 @@
         <v>18399</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,10 +3911,10 @@
         <v>57845</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>191</v>
@@ -4275,10 +4290,10 @@
         <v>237</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M12" s="7">
         <v>197</v>
@@ -4287,13 +4302,13 @@
         <v>218028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4323,13 @@
         <v>579866</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>482</v>
@@ -4323,13 +4338,13 @@
         <v>531164</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>1016</v>
@@ -4338,13 +4353,13 @@
         <v>1111030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4374,13 @@
         <v>314754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -4374,13 +4389,13 @@
         <v>404331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>661</v>
@@ -4389,13 +4404,13 @@
         <v>719085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,7 +4466,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4463,13 +4478,13 @@
         <v>105170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -4478,13 +4493,13 @@
         <v>102755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -4493,13 +4508,13 @@
         <v>207925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4529,13 @@
         <v>442440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>357</v>
@@ -4529,13 +4544,13 @@
         <v>392377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>765</v>
@@ -4544,13 +4559,13 @@
         <v>834818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4580,13 @@
         <v>209119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>259</v>
@@ -4580,13 +4595,13 @@
         <v>280933</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>452</v>
@@ -4595,13 +4610,13 @@
         <v>490052</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,7 +4672,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4669,13 +4684,13 @@
         <v>192788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -4684,13 +4699,13 @@
         <v>193065</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>359</v>
@@ -4699,13 +4714,13 @@
         <v>385853</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4735,13 @@
         <v>553926</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H21" s="7">
         <v>487</v>
@@ -4735,13 +4750,13 @@
         <v>504660</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -4750,13 +4765,13 @@
         <v>1058586</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4786,13 @@
         <v>198660</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>338</v>
@@ -4786,13 +4801,13 @@
         <v>352262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>523</v>
@@ -4801,13 +4816,13 @@
         <v>550922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4890,13 @@
         <v>481181</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
         <v>412</v>
@@ -4893,10 +4908,10 @@
         <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M24" s="7">
         <v>850</v>
@@ -4905,13 +4920,13 @@
         <v>939813</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4941,13 @@
         <v>1963957</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H25" s="7">
         <v>1635</v>
@@ -4941,13 +4956,13 @@
         <v>1757803</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M25" s="7">
         <v>3491</v>
@@ -4956,13 +4971,13 @@
         <v>3721760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4992,13 @@
         <v>974643</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H26" s="7">
         <v>1247</v>
@@ -4992,13 +5007,13 @@
         <v>1337796</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M26" s="7">
         <v>2155</v>
@@ -5007,13 +5022,13 @@
         <v>2312440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,7 +5084,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6743838-A4BA-4CD1-A116-305E3B2153B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A477CD27-CB26-440A-BD60-23B08FD27652}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5214,13 +5229,13 @@
         <v>12076</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5229,13 +5244,13 @@
         <v>8472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5244,13 +5259,13 @@
         <v>20547</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5280,13 @@
         <v>67280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -5280,13 +5295,13 @@
         <v>69969</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -5295,13 +5310,13 @@
         <v>137249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5331,13 @@
         <v>36201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -5331,13 +5346,13 @@
         <v>34919</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M6" s="7">
         <v>70</v>
@@ -5346,13 +5361,13 @@
         <v>71120</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>226</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5435,13 @@
         <v>44688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>366</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -5435,13 +5450,13 @@
         <v>50052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -5450,13 +5465,13 @@
         <v>94740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5486,13 @@
         <v>327599</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H9" s="7">
         <v>297</v>
@@ -5486,13 +5501,13 @@
         <v>296480</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M9" s="7">
         <v>608</v>
@@ -5501,13 +5516,13 @@
         <v>624078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5537,13 @@
         <v>182920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -5537,13 +5552,13 @@
         <v>211040</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M10" s="7">
         <v>385</v>
@@ -5552,13 +5567,13 @@
         <v>393960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5641,13 @@
         <v>139578</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>388</v>
+        <v>291</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -5641,13 +5656,13 @@
         <v>149300</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M12" s="7">
         <v>267</v>
@@ -5656,13 +5671,13 @@
         <v>288879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5692,13 @@
         <v>623647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H13" s="7">
         <v>545</v>
@@ -5692,13 +5707,13 @@
         <v>571949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>1115</v>
@@ -5707,13 +5722,13 @@
         <v>1195596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5743,13 @@
         <v>252170</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -5743,13 +5758,13 @@
         <v>317229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>535</v>
@@ -5758,13 +5773,13 @@
         <v>569399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,7 +5835,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5832,13 +5847,13 @@
         <v>101464</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -5847,13 +5862,13 @@
         <v>104094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5862,13 +5877,13 @@
         <v>205558</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>417</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5898,13 @@
         <v>516217</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>465</v>
@@ -5898,13 +5913,13 @@
         <v>486461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>933</v>
@@ -5913,13 +5928,13 @@
         <v>1002679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5949,13 @@
         <v>141871</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H18" s="7">
         <v>168</v>
@@ -5949,13 +5964,13 @@
         <v>192472</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>308</v>
@@ -5964,13 +5979,13 @@
         <v>334344</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,7 +6041,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6038,13 +6053,13 @@
         <v>249080</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -6053,13 +6068,13 @@
         <v>237222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M20" s="7">
         <v>459</v>
@@ -6068,13 +6083,13 @@
         <v>486303</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6104,13 @@
         <v>541642</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="H21" s="7">
         <v>529</v>
@@ -6104,13 +6119,13 @@
         <v>563441</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -6119,13 +6134,13 @@
         <v>1105084</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6155,13 @@
         <v>141184</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -6155,13 +6170,13 @@
         <v>238999</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M22" s="7">
         <v>356</v>
@@ -6170,13 +6185,13 @@
         <v>380184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6259,13 @@
         <v>546886</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>291</v>
+        <v>468</v>
       </c>
       <c r="H24" s="7">
         <v>526</v>
@@ -6259,13 +6274,13 @@
         <v>549140</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>462</v>
+        <v>268</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M24" s="7">
         <v>1027</v>
@@ -6274,13 +6289,13 @@
         <v>1096027</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6310,13 @@
         <v>2076385</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H25" s="7">
         <v>1908</v>
@@ -6310,13 +6325,13 @@
         <v>1988300</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="M25" s="7">
         <v>3860</v>
@@ -6325,13 +6340,13 @@
         <v>4064685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6361,13 @@
         <v>754347</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>483</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>892</v>
@@ -6361,13 +6376,13 @@
         <v>994660</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>487</v>
       </c>
       <c r="M26" s="7">
         <v>1654</v>
@@ -6376,13 +6391,13 @@
         <v>1749007</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,7 +6453,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6459,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6392F47F-1D0B-4BA9-B8B4-4A0B5376CEB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0433E43-F08A-45EB-8A70-A52A35F148DF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6476,7 +6491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6583,13 +6598,13 @@
         <v>10997</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6598,13 +6613,13 @@
         <v>15575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -6613,13 +6628,13 @@
         <v>26572</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6649,13 @@
         <v>61213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -6649,13 +6664,13 @@
         <v>70757</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -6664,13 +6679,13 @@
         <v>131971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6700,13 @@
         <v>29772</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="H6" s="7">
         <v>93</v>
@@ -6700,13 +6715,13 @@
         <v>44044</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M6" s="7">
         <v>136</v>
@@ -6715,13 +6730,13 @@
         <v>73816</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6804,13 @@
         <v>73084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -6804,13 +6819,13 @@
         <v>74868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>512</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="M8" s="7">
         <v>201</v>
@@ -6819,13 +6834,13 @@
         <v>147952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6855,13 @@
         <v>340167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="H9" s="7">
         <v>547</v>
@@ -6855,13 +6870,13 @@
         <v>356486</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="M9" s="7">
         <v>895</v>
@@ -6870,13 +6885,13 @@
         <v>696653</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>523</v>
+        <v>450</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6906,13 @@
         <v>135344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>530</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="H10" s="7">
         <v>323</v>
@@ -6906,13 +6921,13 @@
         <v>160657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="M10" s="7">
         <v>509</v>
@@ -6921,13 +6936,13 @@
         <v>296002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +7010,13 @@
         <v>171205</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H12" s="7">
         <v>242</v>
@@ -7010,13 +7025,13 @@
         <v>179169</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>466</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -7025,13 +7040,13 @@
         <v>350374</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>303</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +7061,13 @@
         <v>690038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="H13" s="7">
         <v>858</v>
@@ -7061,13 +7076,13 @@
         <v>638145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="M13" s="7">
         <v>1451</v>
@@ -7076,13 +7091,13 @@
         <v>1328183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7112,13 @@
         <v>177845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H14" s="7">
         <v>416</v>
@@ -7112,13 +7127,13 @@
         <v>242160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -7127,13 +7142,13 @@
         <v>420006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,7 +7204,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7201,13 +7216,13 @@
         <v>136641</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H16" s="7">
         <v>217</v>
@@ -7216,13 +7231,13 @@
         <v>154532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="M16" s="7">
         <v>349</v>
@@ -7231,13 +7246,13 @@
         <v>291173</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>563</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7267,13 @@
         <v>509189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="H17" s="7">
         <v>598</v>
@@ -7267,13 +7282,13 @@
         <v>571933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="M17" s="7">
         <v>1039</v>
@@ -7282,13 +7297,13 @@
         <v>1081122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7318,13 @@
         <v>80489</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="H18" s="7">
         <v>228</v>
@@ -7318,13 +7333,13 @@
         <v>145507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="M18" s="7">
         <v>327</v>
@@ -7333,13 +7348,13 @@
         <v>225997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>342</v>
+        <v>584</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>580</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,7 +7410,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7407,13 +7422,13 @@
         <v>281113</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="H20" s="7">
         <v>398</v>
@@ -7422,13 +7437,13 @@
         <v>289742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="M20" s="7">
         <v>703</v>
@@ -7437,13 +7452,13 @@
         <v>570855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7473,13 @@
         <v>561414</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="H21" s="7">
         <v>792</v>
@@ -7473,13 +7488,13 @@
         <v>612200</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="M21" s="7">
         <v>1340</v>
@@ -7488,13 +7503,13 @@
         <v>1173614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7524,13 @@
         <v>118183</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H22" s="7">
         <v>367</v>
@@ -7524,13 +7539,13 @@
         <v>243584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="M22" s="7">
         <v>514</v>
@@ -7539,13 +7554,13 @@
         <v>361767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,13 +7628,13 @@
         <v>673039</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="H24" s="7">
         <v>1004</v>
@@ -7628,13 +7643,13 @@
         <v>713887</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="M24" s="7">
         <v>1685</v>
@@ -7643,13 +7658,13 @@
         <v>1386925</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7679,13 @@
         <v>2162022</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="H25" s="7">
         <v>2921</v>
@@ -7679,13 +7694,13 @@
         <v>2249521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="M25" s="7">
         <v>4913</v>
@@ -7694,13 +7709,13 @@
         <v>4411542</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7730,13 @@
         <v>541634</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="H26" s="7">
         <v>1427</v>
@@ -7730,13 +7745,13 @@
         <v>835953</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="M26" s="7">
         <v>2118</v>
@@ -7745,13 +7760,13 @@
         <v>1377586</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,7 +7822,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0DA312E-B51D-4040-B8D8-E46A183D5DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0217473-7A0F-4DE7-80FB-8509A62D6B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB78013B-8A97-4A50-8D36-218087C8845D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46315DB2-7C22-4558-B400-473F9B31CAEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="642">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>9,63%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -107,1780 +107,1792 @@
     <t>49,23%</t>
   </si>
   <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
   </si>
   <si>
     <t>44,61%</t>
   </si>
   <si>
-    <t>35,98%</t>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
   </si>
   <si>
     <t>53,55%</t>
   </si>
   <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
+    <t>57,89%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>18,31%</t>
+    <t>18,24%</t>
   </si>
   <si>
     <t>21,46%</t>
@@ -1889,73 +1901,70 @@
     <t>18,79%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A428681-73B8-46FA-92F1-09AD62140594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A7853-D925-4841-A8F5-404941176B17}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2814,13 +2823,13 @@
         <v>266910</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>499</v>
@@ -2829,13 +2838,13 @@
         <v>496664</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,7 +2900,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2903,13 +2912,13 @@
         <v>124048</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -2918,13 +2927,13 @@
         <v>115981</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>220</v>
@@ -2933,13 +2942,13 @@
         <v>240028</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2963,13 @@
         <v>488787</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>428</v>
@@ -2969,13 +2978,13 @@
         <v>454879</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>880</v>
@@ -2984,13 +2993,13 @@
         <v>943665</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3014,13 @@
         <v>348966</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>370</v>
@@ -3020,13 +3029,13 @@
         <v>397534</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -3035,13 +3044,13 @@
         <v>746500</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3106,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3118,13 @@
         <v>134442</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3124,13 +3133,13 @@
         <v>88040</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3139,13 +3148,13 @@
         <v>222482</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3169,13 @@
         <v>359680</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
@@ -3175,13 +3184,13 @@
         <v>334887</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>681</v>
@@ -3190,13 +3199,13 @@
         <v>694567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3220,13 @@
         <v>184387</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>270</v>
@@ -3226,13 +3235,13 @@
         <v>260914</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>454</v>
@@ -3241,13 +3250,13 @@
         <v>445301</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3312,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3315,13 +3324,13 @@
         <v>225850</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -3330,13 +3339,13 @@
         <v>216702</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>437</v>
@@ -3345,13 +3354,13 @@
         <v>442551</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3375,13 @@
         <v>495215</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>469</v>
@@ -3381,13 +3390,13 @@
         <v>485696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>989</v>
@@ -3396,13 +3405,13 @@
         <v>980911</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3426,13 @@
         <v>221157</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -3432,13 +3441,13 @@
         <v>336214</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>565</v>
@@ -3447,13 +3456,13 @@
         <v>557371</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3530,13 @@
         <v>551408</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>452</v>
@@ -3536,28 +3545,28 @@
         <v>476412</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>979</v>
       </c>
       <c r="N24" s="7">
-        <v>1027820</v>
+        <v>1027819</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,16 +3578,16 @@
         <v>1649</v>
       </c>
       <c r="D25" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>1554</v>
@@ -3587,28 +3596,28 @@
         <v>1587673</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>3203</v>
       </c>
       <c r="N25" s="7">
-        <v>3281086</v>
+        <v>3281085</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3632,13 @@
         <v>1031723</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>1291</v>
@@ -3638,28 +3647,28 @@
         <v>1315113</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>2329</v>
       </c>
       <c r="N26" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3680,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3701,7 +3710,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3715,7 +3724,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3736,7 +3745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED12DC72-1A40-4F3B-A5CB-4EE8079BE7D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10853D28-FF6B-46AD-A3B0-73AEA95EF1C7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3753,7 +3762,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3860,13 +3869,13 @@
         <v>10602</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3875,13 +3884,13 @@
         <v>7797</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3890,13 +3899,13 @@
         <v>18399</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3920,13 @@
         <v>57845</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -3926,13 +3935,13 @@
         <v>45350</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>102</v>
@@ -3941,13 +3950,13 @@
         <v>103195</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3971,13 @@
         <v>46592</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7">
         <v>51</v>
@@ -3977,13 +3986,13 @@
         <v>58758</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>101</v>
@@ -3992,13 +4001,13 @@
         <v>105350</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4075,13 @@
         <v>51283</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -4081,13 +4090,13 @@
         <v>58325</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -4096,13 +4105,13 @@
         <v>109608</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4126,13 @@
         <v>329880</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H9" s="7">
         <v>268</v>
@@ -4132,13 +4141,13 @@
         <v>284251</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M9" s="7">
         <v>581</v>
@@ -4147,13 +4156,13 @@
         <v>614132</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4177,13 @@
         <v>205518</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>228</v>
@@ -4183,13 +4192,13 @@
         <v>241513</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>418</v>
@@ -4198,13 +4207,13 @@
         <v>447031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,7 +4269,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4272,13 +4281,13 @@
         <v>121338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -4287,13 +4296,13 @@
         <v>96690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>197</v>
@@ -4302,13 +4311,13 @@
         <v>218028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4332,13 @@
         <v>579866</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>482</v>
@@ -4338,13 +4347,13 @@
         <v>531164</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>1016</v>
@@ -4353,13 +4362,13 @@
         <v>1111030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4383,13 @@
         <v>314754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -4389,13 +4398,13 @@
         <v>404331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>661</v>
@@ -4404,13 +4413,13 @@
         <v>719085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,7 +4475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4478,13 +4487,13 @@
         <v>105170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -4493,13 +4502,13 @@
         <v>102755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -4508,13 +4517,13 @@
         <v>207925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4538,13 @@
         <v>442440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>357</v>
@@ -4544,13 +4553,13 @@
         <v>392377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>765</v>
@@ -4559,13 +4568,13 @@
         <v>834818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4589,13 @@
         <v>209119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H18" s="7">
         <v>259</v>
@@ -4595,13 +4604,13 @@
         <v>280933</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>452</v>
@@ -4610,13 +4619,13 @@
         <v>490052</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,7 +4681,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4684,13 +4693,13 @@
         <v>192788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -4699,13 +4708,13 @@
         <v>193065</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>359</v>
@@ -4714,13 +4723,13 @@
         <v>385853</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4744,13 @@
         <v>553926</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H21" s="7">
         <v>487</v>
@@ -4750,13 +4759,13 @@
         <v>504660</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -4765,13 +4774,13 @@
         <v>1058586</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4795,13 @@
         <v>198660</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>338</v>
@@ -4801,13 +4810,13 @@
         <v>352262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>523</v>
@@ -4816,13 +4825,13 @@
         <v>550922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4899,13 @@
         <v>481181</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>99</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>412</v>
@@ -4905,13 +4914,13 @@
         <v>458631</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>850</v>
@@ -4920,13 +4929,13 @@
         <v>939813</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4950,13 @@
         <v>1963957</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>1635</v>
@@ -4956,13 +4965,13 @@
         <v>1757803</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M25" s="7">
         <v>3491</v>
@@ -4971,13 +4980,13 @@
         <v>3721760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5001,13 @@
         <v>974643</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>333</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>1247</v>
@@ -5007,13 +5016,13 @@
         <v>1337796</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M26" s="7">
         <v>2155</v>
@@ -5022,13 +5031,13 @@
         <v>2312440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,7 +5093,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5105,7 +5114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A477CD27-CB26-440A-BD60-23B08FD27652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823BBA82-5FFB-4316-943A-E379FB7CB31C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5122,7 +5131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5229,13 +5238,13 @@
         <v>12076</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5244,13 +5253,13 @@
         <v>8472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5259,13 +5268,13 @@
         <v>20547</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5289,13 @@
         <v>67280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -5295,13 +5304,13 @@
         <v>69969</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -5310,13 +5319,13 @@
         <v>137249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5340,13 @@
         <v>36201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -5346,13 +5355,13 @@
         <v>34919</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>70</v>
@@ -5361,13 +5370,13 @@
         <v>71120</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5444,13 @@
         <v>44688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -5450,13 +5459,13 @@
         <v>50052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -5465,13 +5474,13 @@
         <v>94740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5495,13 @@
         <v>327599</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H9" s="7">
         <v>297</v>
@@ -5501,13 +5510,13 @@
         <v>296480</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>608</v>
@@ -5516,13 +5525,13 @@
         <v>624078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5546,13 @@
         <v>182920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -5552,13 +5561,13 @@
         <v>211040</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>385</v>
@@ -5567,13 +5576,13 @@
         <v>393960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,7 +5638,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5641,13 +5650,13 @@
         <v>139578</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -5656,13 +5665,13 @@
         <v>149300</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>267</v>
@@ -5671,13 +5680,13 @@
         <v>288879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>394</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5701,13 @@
         <v>623647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>545</v>
@@ -5707,13 +5716,13 @@
         <v>571949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>1115</v>
@@ -5722,13 +5731,13 @@
         <v>1195596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5752,13 @@
         <v>252170</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -5758,13 +5767,13 @@
         <v>317229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>535</v>
@@ -5773,13 +5782,13 @@
         <v>569399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,7 +5844,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5847,13 +5856,13 @@
         <v>101464</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -5862,13 +5871,13 @@
         <v>104094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5877,13 +5886,13 @@
         <v>205558</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5907,13 @@
         <v>516217</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>465</v>
@@ -5913,13 +5922,13 @@
         <v>486461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>933</v>
@@ -5928,13 +5937,13 @@
         <v>1002679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5958,13 @@
         <v>141871</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H18" s="7">
         <v>168</v>
@@ -5964,13 +5973,13 @@
         <v>192472</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M18" s="7">
         <v>308</v>
@@ -5979,13 +5988,13 @@
         <v>334344</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,7 +6050,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6053,13 +6062,13 @@
         <v>249080</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -6068,13 +6077,13 @@
         <v>237222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>459</v>
@@ -6083,13 +6092,13 @@
         <v>486303</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6113,13 @@
         <v>541642</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H21" s="7">
         <v>529</v>
@@ -6119,13 +6128,13 @@
         <v>563441</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>452</v>
+        <v>193</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -6134,13 +6143,13 @@
         <v>1105084</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6164,13 @@
         <v>141184</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -6170,13 +6179,13 @@
         <v>238999</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M22" s="7">
         <v>356</v>
@@ -6185,13 +6194,13 @@
         <v>380184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6268,13 @@
         <v>546886</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H24" s="7">
         <v>526</v>
@@ -6274,13 +6283,13 @@
         <v>549140</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>268</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>97</v>
       </c>
       <c r="M24" s="7">
         <v>1027</v>
@@ -6289,13 +6298,13 @@
         <v>1096027</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6319,13 @@
         <v>2076385</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H25" s="7">
         <v>1908</v>
@@ -6325,13 +6334,13 @@
         <v>1988300</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M25" s="7">
         <v>3860</v>
@@ -6340,13 +6349,13 @@
         <v>4064685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6370,13 @@
         <v>754347</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H26" s="7">
         <v>892</v>
@@ -6376,13 +6385,13 @@
         <v>994660</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M26" s="7">
         <v>1654</v>
@@ -6391,13 +6400,13 @@
         <v>1749007</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6462,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6474,7 +6483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0433E43-F08A-45EB-8A70-A52A35F148DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407988EA-C549-453B-A44B-94677D7B35FE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6491,7 +6500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6598,13 +6607,13 @@
         <v>10997</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>415</v>
+        <v>487</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6613,13 +6622,13 @@
         <v>15575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -6628,13 +6637,13 @@
         <v>26572</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6658,13 @@
         <v>61213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -6664,13 +6673,13 @@
         <v>70757</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -6679,13 +6688,13 @@
         <v>131971</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6709,13 @@
         <v>29772</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H6" s="7">
         <v>93</v>
@@ -6715,13 +6724,13 @@
         <v>44044</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M6" s="7">
         <v>136</v>
@@ -6730,13 +6739,13 @@
         <v>73816</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6813,13 @@
         <v>73084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>515</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -6819,13 +6828,13 @@
         <v>74868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>320</v>
+        <v>515</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M8" s="7">
         <v>201</v>
@@ -6834,13 +6843,13 @@
         <v>147952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>518</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6864,13 @@
         <v>340167</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H9" s="7">
         <v>547</v>
@@ -6870,13 +6879,13 @@
         <v>356486</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M9" s="7">
         <v>895</v>
@@ -6885,7 +6894,7 @@
         <v>696653</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>528</v>
@@ -6906,7 +6915,7 @@
         <v>135344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>530</v>
@@ -6998,7 +7007,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7013,10 +7022,10 @@
         <v>538</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H12" s="7">
         <v>242</v>
@@ -7025,13 +7034,13 @@
         <v>179169</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>542</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -7040,13 +7049,13 @@
         <v>350374</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7070,13 @@
         <v>690038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H13" s="7">
         <v>858</v>
@@ -7076,13 +7085,13 @@
         <v>638145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>548</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M13" s="7">
         <v>1451</v>
@@ -7091,13 +7100,13 @@
         <v>1328183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7121,13 @@
         <v>177845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H14" s="7">
         <v>416</v>
@@ -7127,13 +7136,13 @@
         <v>242160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -7142,13 +7151,13 @@
         <v>420006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,7 +7213,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7216,13 +7225,13 @@
         <v>136641</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>217</v>
@@ -7231,13 +7240,13 @@
         <v>154532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>349</v>
@@ -7246,13 +7255,13 @@
         <v>291173</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>568</v>
+        <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>570</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7276,13 @@
         <v>509189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H17" s="7">
         <v>598</v>
@@ -7282,13 +7291,13 @@
         <v>571933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M17" s="7">
         <v>1039</v>
@@ -7297,13 +7306,13 @@
         <v>1081122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7327,13 @@
         <v>80489</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H18" s="7">
         <v>228</v>
@@ -7333,13 +7342,13 @@
         <v>145507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>585</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M18" s="7">
         <v>327</v>
@@ -7348,13 +7357,13 @@
         <v>225997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,7 +7419,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7422,13 +7431,13 @@
         <v>281113</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H20" s="7">
         <v>398</v>
@@ -7437,13 +7446,13 @@
         <v>289742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M20" s="7">
         <v>703</v>
@@ -7452,13 +7461,13 @@
         <v>570855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>559</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7482,13 @@
         <v>561414</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H21" s="7">
         <v>792</v>
@@ -7488,13 +7497,13 @@
         <v>612200</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="M21" s="7">
         <v>1340</v>
@@ -7503,13 +7512,13 @@
         <v>1173614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,13 +7533,13 @@
         <v>118183</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="H22" s="7">
         <v>367</v>
@@ -7539,13 +7548,13 @@
         <v>243584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="M22" s="7">
         <v>514</v>
@@ -7554,13 +7563,13 @@
         <v>361767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7637,13 @@
         <v>673039</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H24" s="7">
         <v>1004</v>
@@ -7643,28 +7652,28 @@
         <v>713887</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M24" s="7">
         <v>1685</v>
       </c>
       <c r="N24" s="7">
-        <v>1386925</v>
+        <v>1386926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7688,13 @@
         <v>2162022</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H25" s="7">
         <v>2921</v>
@@ -7694,28 +7703,28 @@
         <v>2249521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="M25" s="7">
         <v>4913</v>
       </c>
       <c r="N25" s="7">
-        <v>4411542</v>
+        <v>4411543</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>627</v>
+        <v>501</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7739,13 @@
         <v>541634</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H26" s="7">
         <v>1427</v>
@@ -7745,28 +7754,28 @@
         <v>835953</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M26" s="7">
         <v>2118</v>
       </c>
       <c r="N26" s="7">
-        <v>1377586</v>
+        <v>1377587</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,7 +7787,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -7808,7 +7817,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -7822,7 +7831,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0217473-7A0F-4DE7-80FB-8509A62D6B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62451029-EEFE-44D5-B750-895AEA9E12AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46315DB2-7C22-4558-B400-473F9B31CAEB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7A122A3B-D62B-4C8C-90D6-AF68C4903C34}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="536">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,318 +68,240 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
   <si>
     <t>53,77%</t>
   </si>
   <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
     <t>27,18%</t>
   </si>
   <si>
@@ -578,813 +500,666 @@
     <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>51,08%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
     <t>57,55%</t>
   </si>
   <si>
@@ -1502,469 +1277,376 @@
     <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
 </sst>
 </file>
@@ -2376,8 +2058,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A7853-D925-4841-A8F5-404941176B17}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702DFFA5-F660-4AF6-9609-E2DCC057A581}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2494,10 +2176,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>11112</v>
+        <v>67068</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2509,10 +2191,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>8916</v>
+        <v>55689</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2524,10 +2206,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="N4" s="7">
-        <v>20028</v>
+        <v>122758</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2545,10 +2227,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="D5" s="7">
-        <v>56788</v>
+        <v>349731</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2560,10 +2242,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="I5" s="7">
-        <v>50298</v>
+        <v>312211</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2575,10 +2257,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>107</v>
+        <v>653</v>
       </c>
       <c r="N5" s="7">
-        <v>107085</v>
+        <v>661942</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2596,10 +2278,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="D6" s="7">
-        <v>47459</v>
+        <v>277213</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2611,10 +2293,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="I6" s="7">
-        <v>53541</v>
+        <v>320450</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2626,10 +2308,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>107</v>
+        <v>606</v>
       </c>
       <c r="N6" s="7">
-        <v>101000</v>
+        <v>597663</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2647,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2662,10 +2344,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2677,10 +2359,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2700,49 +2382,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7">
-        <v>55957</v>
+        <v>124048</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>110</v>
+      </c>
+      <c r="I8" s="7">
+        <v>115981</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="7">
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="7">
-        <v>46773</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>220</v>
+      </c>
+      <c r="N8" s="7">
+        <v>240028</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="7">
-        <v>101</v>
-      </c>
-      <c r="N8" s="7">
-        <v>102730</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,49 +2433,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>288</v>
+        <v>452</v>
       </c>
       <c r="D9" s="7">
-        <v>292943</v>
+        <v>488787</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>428</v>
+      </c>
+      <c r="I9" s="7">
+        <v>454879</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
-      <c r="I9" s="7">
-        <v>261913</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>880</v>
+      </c>
+      <c r="N9" s="7">
+        <v>943665</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="7">
-        <v>546</v>
-      </c>
-      <c r="N9" s="7">
-        <v>554857</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,49 +2484,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="D10" s="7">
-        <v>229754</v>
+        <v>348966</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>370</v>
+      </c>
+      <c r="I10" s="7">
+        <v>397534</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H10" s="7">
-        <v>265</v>
-      </c>
-      <c r="I10" s="7">
-        <v>266910</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>499</v>
+        <v>704</v>
       </c>
       <c r="N10" s="7">
-        <v>496664</v>
+        <v>746500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,10 +2535,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2868,10 +2550,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2883,10 +2565,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2900,55 +2582,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D12" s="7">
-        <v>124048</v>
+        <v>134442</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="I12" s="7">
-        <v>115981</v>
+        <v>88040</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>240028</v>
+        <v>222482</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,49 +2639,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>452</v>
+        <v>339</v>
       </c>
       <c r="D13" s="7">
-        <v>488787</v>
+        <v>359680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>428</v>
+        <v>342</v>
       </c>
       <c r="I13" s="7">
-        <v>454879</v>
+        <v>334887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>880</v>
+        <v>681</v>
       </c>
       <c r="N13" s="7">
-        <v>943665</v>
+        <v>694567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,49 +2690,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="D14" s="7">
-        <v>348966</v>
+        <v>184387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="I14" s="7">
-        <v>397534</v>
+        <v>260914</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>704</v>
+        <v>454</v>
       </c>
       <c r="N14" s="7">
-        <v>746500</v>
+        <v>445301</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3074,10 +2756,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3089,10 +2771,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3106,55 +2788,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="D16" s="7">
-        <v>134442</v>
+        <v>225850</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="I16" s="7">
-        <v>88040</v>
+        <v>216702</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>202</v>
+        <v>437</v>
       </c>
       <c r="N16" s="7">
-        <v>222482</v>
+        <v>442551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,49 +2845,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>339</v>
+        <v>520</v>
       </c>
       <c r="D17" s="7">
-        <v>359680</v>
+        <v>495215</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>342</v>
+        <v>469</v>
       </c>
       <c r="I17" s="7">
-        <v>334887</v>
+        <v>485696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="N17" s="7">
-        <v>694567</v>
+        <v>980911</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,49 +2896,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="D18" s="7">
-        <v>184387</v>
+        <v>221157</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="I18" s="7">
-        <v>260914</v>
+        <v>336214</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
-        <v>454</v>
+        <v>565</v>
       </c>
       <c r="N18" s="7">
-        <v>445301</v>
+        <v>557371</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,10 +2947,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3280,10 +2962,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3295,10 +2977,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3312,55 +2994,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>233</v>
+        <v>527</v>
       </c>
       <c r="D20" s="7">
-        <v>225850</v>
+        <v>551408</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>204</v>
+        <v>452</v>
       </c>
       <c r="I20" s="7">
-        <v>216702</v>
+        <v>476412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
-        <v>437</v>
+        <v>979</v>
       </c>
       <c r="N20" s="7">
-        <v>442551</v>
+        <v>1027820</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,49 +3051,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>520</v>
+        <v>1649</v>
       </c>
       <c r="D21" s="7">
-        <v>495215</v>
+        <v>1693412</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
-        <v>469</v>
+        <v>1554</v>
       </c>
       <c r="I21" s="7">
-        <v>485696</v>
+        <v>1587673</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
-        <v>989</v>
+        <v>3203</v>
       </c>
       <c r="N21" s="7">
-        <v>980911</v>
+        <v>3281086</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,49 +3102,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>241</v>
+        <v>1038</v>
       </c>
       <c r="D22" s="7">
-        <v>221157</v>
+        <v>1031723</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>324</v>
+        <v>1291</v>
       </c>
       <c r="I22" s="7">
-        <v>336214</v>
+        <v>1315113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
-        <v>565</v>
+        <v>2329</v>
       </c>
       <c r="N22" s="7">
-        <v>557371</v>
+        <v>2346836</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,10 +3153,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3486,10 +3168,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3501,10 +3183,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3517,222 +3199,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>527</v>
-      </c>
-      <c r="D24" s="7">
-        <v>551408</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="A24" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="7">
-        <v>452</v>
-      </c>
-      <c r="I24" s="7">
-        <v>476412</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" s="7">
-        <v>979</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1027819</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1649</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1693413</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1554</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1587673</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3203</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3281085</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1038</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1031723</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1291</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1315113</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2329</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2346835</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3745,8 +3220,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10853D28-FF6B-46AD-A3B0-73AEA95EF1C7}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBF214F-70A2-4EBB-9389-955DB488AECD}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3762,7 +3237,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3863,49 +3338,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>10602</v>
+        <v>61885</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="I4" s="7">
-        <v>7797</v>
+        <v>66122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="N4" s="7">
-        <v>18399</v>
+        <v>128006</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,49 +3389,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="D5" s="7">
-        <v>57845</v>
+        <v>387725</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="I5" s="7">
-        <v>45350</v>
+        <v>329602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
-        <v>102</v>
+        <v>683</v>
       </c>
       <c r="N5" s="7">
-        <v>103195</v>
+        <v>717326</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,49 +3440,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="D6" s="7">
-        <v>46592</v>
+        <v>252110</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="I6" s="7">
-        <v>58758</v>
+        <v>300271</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
-        <v>101</v>
+        <v>519</v>
       </c>
       <c r="N6" s="7">
-        <v>105350</v>
+        <v>552381</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,10 +3491,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>121</v>
+        <v>672</v>
       </c>
       <c r="D7" s="7">
-        <v>115038</v>
+        <v>701720</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4031,10 +3506,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>695994</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4046,10 +3521,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>220</v>
+        <v>1321</v>
       </c>
       <c r="N7" s="7">
-        <v>226943</v>
+        <v>1397714</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4069,49 +3544,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7">
-        <v>51283</v>
+        <v>121338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="I8" s="7">
-        <v>58325</v>
+        <v>96690</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="N8" s="7">
-        <v>109608</v>
+        <v>218028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,49 +3595,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>313</v>
+        <v>534</v>
       </c>
       <c r="D9" s="7">
-        <v>329880</v>
+        <v>579866</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
-        <v>268</v>
+        <v>482</v>
       </c>
       <c r="I9" s="7">
-        <v>284251</v>
+        <v>531164</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
-        <v>581</v>
+        <v>1016</v>
       </c>
       <c r="N9" s="7">
-        <v>614132</v>
+        <v>1111030</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,49 +3646,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="D10" s="7">
-        <v>205518</v>
+        <v>314754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>228</v>
+        <v>371</v>
       </c>
       <c r="I10" s="7">
-        <v>241513</v>
+        <v>404331</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
-        <v>418</v>
+        <v>661</v>
       </c>
       <c r="N10" s="7">
-        <v>447031</v>
+        <v>719085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,10 +3697,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>551</v>
+        <v>934</v>
       </c>
       <c r="D11" s="7">
-        <v>586682</v>
+        <v>1015959</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4237,10 +3712,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>550</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>584089</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4252,10 +3727,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="N11" s="7">
-        <v>1170771</v>
+        <v>2048143</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4269,55 +3744,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7">
-        <v>121338</v>
+        <v>105170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="7">
-        <v>96690</v>
+        <v>102755</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="N12" s="7">
-        <v>218028</v>
+        <v>207925</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,49 +3801,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>534</v>
+        <v>408</v>
       </c>
       <c r="D13" s="7">
-        <v>579866</v>
+        <v>442440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
-        <v>482</v>
+        <v>357</v>
       </c>
       <c r="I13" s="7">
-        <v>531164</v>
+        <v>392377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
-        <v>1016</v>
+        <v>765</v>
       </c>
       <c r="N13" s="7">
-        <v>1111030</v>
+        <v>834818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,49 +3852,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="D14" s="7">
-        <v>314754</v>
+        <v>209119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
-        <v>371</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>404331</v>
+        <v>280933</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
-        <v>661</v>
+        <v>452</v>
       </c>
       <c r="N14" s="7">
-        <v>719085</v>
+        <v>490052</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,10 +3903,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>934</v>
+        <v>688</v>
       </c>
       <c r="D15" s="7">
-        <v>1015959</v>
+        <v>756729</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4443,10 +3918,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>704</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>776065</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4458,10 +3933,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1874</v>
+        <v>1392</v>
       </c>
       <c r="N15" s="7">
-        <v>2048143</v>
+        <v>1532794</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4475,55 +3950,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="D16" s="7">
-        <v>105170</v>
+        <v>192788</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="I16" s="7">
-        <v>102755</v>
+        <v>193065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
-        <v>175</v>
+        <v>359</v>
       </c>
       <c r="N16" s="7">
-        <v>207925</v>
+        <v>385853</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,49 +4007,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>408</v>
+        <v>540</v>
       </c>
       <c r="D17" s="7">
-        <v>442440</v>
+        <v>553926</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
-        <v>357</v>
+        <v>487</v>
       </c>
       <c r="I17" s="7">
-        <v>392377</v>
+        <v>504660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
-        <v>765</v>
+        <v>1027</v>
       </c>
       <c r="N17" s="7">
-        <v>834818</v>
+        <v>1058586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,49 +4058,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D18" s="7">
-        <v>209119</v>
+        <v>198660</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
+        <v>338</v>
+      </c>
+      <c r="I18" s="7">
+        <v>352262</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M18" s="7">
+        <v>523</v>
+      </c>
+      <c r="N18" s="7">
+        <v>550922</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="I18" s="7">
-        <v>280933</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M18" s="7">
-        <v>452</v>
-      </c>
-      <c r="N18" s="7">
-        <v>490052</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,10 +4109,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>688</v>
+        <v>908</v>
       </c>
       <c r="D19" s="7">
-        <v>756729</v>
+        <v>945374</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4649,10 +4124,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>704</v>
+        <v>1001</v>
       </c>
       <c r="I19" s="7">
-        <v>776065</v>
+        <v>1049987</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4664,10 +4139,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1392</v>
+        <v>1909</v>
       </c>
       <c r="N19" s="7">
-        <v>1532794</v>
+        <v>1995361</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4681,55 +4156,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>183</v>
+        <v>438</v>
       </c>
       <c r="D20" s="7">
-        <v>192788</v>
+        <v>481181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
-        <v>176</v>
+        <v>412</v>
       </c>
       <c r="I20" s="7">
-        <v>193065</v>
+        <v>458631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
-        <v>359</v>
+        <v>850</v>
       </c>
       <c r="N20" s="7">
-        <v>385853</v>
+        <v>939813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,49 +4213,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>540</v>
+        <v>1856</v>
       </c>
       <c r="D21" s="7">
-        <v>553926</v>
+        <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="H21" s="7">
-        <v>487</v>
+        <v>1635</v>
       </c>
       <c r="I21" s="7">
-        <v>504660</v>
+        <v>1757803</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="M21" s="7">
-        <v>1027</v>
+        <v>3491</v>
       </c>
       <c r="N21" s="7">
-        <v>1058586</v>
+        <v>3721760</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,49 +4264,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>185</v>
+        <v>908</v>
       </c>
       <c r="D22" s="7">
-        <v>198660</v>
+        <v>974643</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
-        <v>338</v>
+        <v>1247</v>
       </c>
       <c r="I22" s="7">
-        <v>352262</v>
+        <v>1337796</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="M22" s="7">
-        <v>523</v>
+        <v>2155</v>
       </c>
       <c r="N22" s="7">
-        <v>550922</v>
+        <v>2312440</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,10 +4315,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>908</v>
+        <v>3202</v>
       </c>
       <c r="D23" s="7">
-        <v>945374</v>
+        <v>3419782</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4855,10 +4330,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1001</v>
+        <v>3294</v>
       </c>
       <c r="I23" s="7">
-        <v>1049987</v>
+        <v>3554230</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4870,10 +4345,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1909</v>
+        <v>6496</v>
       </c>
       <c r="N23" s="7">
-        <v>1995361</v>
+        <v>6974012</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4886,222 +4361,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>438</v>
-      </c>
-      <c r="D24" s="7">
-        <v>481181</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" s="7">
-        <v>412</v>
-      </c>
-      <c r="I24" s="7">
-        <v>458631</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M24" s="7">
-        <v>850</v>
-      </c>
-      <c r="N24" s="7">
-        <v>939813</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1856</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1963957</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1635</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1757803</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3491</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3721760</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>908</v>
-      </c>
-      <c r="D26" s="7">
-        <v>974643</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1247</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1337796</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2155</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2312440</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3202</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3419782</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3554230</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6496</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6974012</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5114,8 +4382,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823BBA82-5FFB-4316-943A-E379FB7CB31C}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246D5FD0-2E35-4C0B-9368-90C819729302}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5131,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5232,49 +4500,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>12076</v>
+        <v>56763</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="I4" s="7">
-        <v>8472</v>
+        <v>58524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="N4" s="7">
-        <v>20547</v>
+        <v>115287</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>65</v>
+        <v>376</v>
       </c>
       <c r="D5" s="7">
-        <v>67280</v>
+        <v>394878</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="I5" s="7">
-        <v>69969</v>
+        <v>366449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
-        <v>137</v>
+        <v>745</v>
       </c>
       <c r="N5" s="7">
-        <v>137249</v>
+        <v>761327</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,49 +4602,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="D6" s="7">
-        <v>36201</v>
+        <v>219121</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="I6" s="7">
-        <v>34919</v>
+        <v>245959</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="M6" s="7">
-        <v>70</v>
+        <v>455</v>
       </c>
       <c r="N6" s="7">
-        <v>71120</v>
+        <v>465080</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,10 +4653,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>112</v>
+        <v>648</v>
       </c>
       <c r="D7" s="7">
-        <v>115556</v>
+        <v>670762</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5400,10 +4668,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>664</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>670932</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5415,10 +4683,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>227</v>
+        <v>1312</v>
       </c>
       <c r="N7" s="7">
-        <v>228916</v>
+        <v>1341694</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5438,49 +4706,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D8" s="7">
-        <v>44688</v>
+        <v>139578</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="I8" s="7">
-        <v>50052</v>
+        <v>149300</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="N8" s="7">
-        <v>94740</v>
+        <v>288879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,49 +4757,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>311</v>
+        <v>570</v>
       </c>
       <c r="D9" s="7">
-        <v>327599</v>
+        <v>623647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
-        <v>297</v>
+        <v>545</v>
       </c>
       <c r="I9" s="7">
-        <v>296480</v>
+        <v>571948</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
-        <v>608</v>
+        <v>1115</v>
       </c>
       <c r="N9" s="7">
-        <v>624078</v>
+        <v>1195596</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,49 +4808,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="D10" s="7">
-        <v>182920</v>
+        <v>252170</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="I10" s="7">
-        <v>211040</v>
+        <v>317229</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
-        <v>385</v>
+        <v>535</v>
       </c>
       <c r="N10" s="7">
-        <v>393960</v>
+        <v>569399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,10 +4859,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>536</v>
+        <v>944</v>
       </c>
       <c r="D11" s="7">
-        <v>555206</v>
+        <v>1015396</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5606,10 +4874,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>549</v>
+        <v>973</v>
       </c>
       <c r="I11" s="7">
-        <v>557572</v>
+        <v>1038477</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5621,10 +4889,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1085</v>
+        <v>1917</v>
       </c>
       <c r="N11" s="7">
-        <v>1112778</v>
+        <v>2053874</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5638,55 +4906,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7">
-        <v>139578</v>
+        <v>101464</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="I12" s="7">
-        <v>149300</v>
+        <v>104094</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>389</v>
+        <v>314</v>
       </c>
       <c r="M12" s="7">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="N12" s="7">
-        <v>288879</v>
+        <v>205558</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,49 +4963,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>570</v>
+        <v>468</v>
       </c>
       <c r="D13" s="7">
-        <v>623647</v>
+        <v>516217</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
-        <v>545</v>
+        <v>465</v>
       </c>
       <c r="I13" s="7">
-        <v>571949</v>
+        <v>486461</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
-        <v>1115</v>
+        <v>933</v>
       </c>
       <c r="N13" s="7">
-        <v>1195596</v>
+        <v>1002679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,49 +5014,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="D14" s="7">
-        <v>252170</v>
+        <v>141871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="I14" s="7">
-        <v>317229</v>
+        <v>192472</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
-        <v>535</v>
+        <v>308</v>
       </c>
       <c r="N14" s="7">
-        <v>569399</v>
+        <v>334344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,10 +5065,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>944</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1015396</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5812,10 +5080,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>973</v>
+        <v>734</v>
       </c>
       <c r="I15" s="7">
-        <v>1038478</v>
+        <v>783028</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5827,10 +5095,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1917</v>
+        <v>1430</v>
       </c>
       <c r="N15" s="7">
-        <v>2053874</v>
+        <v>1542581</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5844,55 +5112,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="D16" s="7">
-        <v>101464</v>
+        <v>249080</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="I16" s="7">
-        <v>104094</v>
+        <v>237222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
-        <v>189</v>
+        <v>459</v>
       </c>
       <c r="N16" s="7">
-        <v>205558</v>
+        <v>486303</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,49 +5169,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="D17" s="7">
-        <v>516217</v>
+        <v>541642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="I17" s="7">
-        <v>486461</v>
+        <v>563441</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="N17" s="7">
-        <v>1002679</v>
+        <v>1105084</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,49 +5220,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D18" s="7">
-        <v>141871</v>
+        <v>141184</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>427</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="I18" s="7">
-        <v>192472</v>
+        <v>238999</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="N18" s="7">
-        <v>334344</v>
+        <v>380184</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,10 +5271,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>927</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>931907</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6018,10 +5286,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>734</v>
+        <v>955</v>
       </c>
       <c r="I19" s="7">
-        <v>783028</v>
+        <v>1039663</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6033,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1430</v>
+        <v>1882</v>
       </c>
       <c r="N19" s="7">
-        <v>1542581</v>
+        <v>1971570</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6050,55 +5318,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>238</v>
+        <v>501</v>
       </c>
       <c r="D20" s="7">
-        <v>249080</v>
+        <v>546886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
-        <v>221</v>
+        <v>526</v>
       </c>
       <c r="I20" s="7">
-        <v>237222</v>
+        <v>549140</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>70</v>
       </c>
       <c r="M20" s="7">
-        <v>459</v>
+        <v>1027</v>
       </c>
       <c r="N20" s="7">
-        <v>486303</v>
+        <v>1096027</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,49 +5375,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>538</v>
+        <v>1952</v>
       </c>
       <c r="D21" s="7">
-        <v>541642</v>
+        <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H21" s="7">
-        <v>529</v>
+        <v>1908</v>
       </c>
       <c r="I21" s="7">
-        <v>563441</v>
+        <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>193</v>
+        <v>397</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="M21" s="7">
-        <v>1067</v>
+        <v>3860</v>
       </c>
       <c r="N21" s="7">
-        <v>1105084</v>
+        <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,49 +5426,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>151</v>
+        <v>762</v>
       </c>
       <c r="D22" s="7">
-        <v>141184</v>
+        <v>754347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>68</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
-        <v>205</v>
+        <v>892</v>
       </c>
       <c r="I22" s="7">
-        <v>238999</v>
+        <v>994660</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
-        <v>356</v>
+        <v>1654</v>
       </c>
       <c r="N22" s="7">
-        <v>380184</v>
+        <v>1749007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,10 +5477,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>927</v>
+        <v>3215</v>
       </c>
       <c r="D23" s="7">
-        <v>931907</v>
+        <v>3377618</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6224,10 +5492,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>955</v>
+        <v>3326</v>
       </c>
       <c r="I23" s="7">
-        <v>1039663</v>
+        <v>3532100</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6239,10 +5507,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1882</v>
+        <v>6541</v>
       </c>
       <c r="N23" s="7">
-        <v>1971570</v>
+        <v>6909718</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6255,222 +5523,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>501</v>
-      </c>
-      <c r="D24" s="7">
-        <v>546886</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H24" s="7">
-        <v>526</v>
-      </c>
-      <c r="I24" s="7">
-        <v>549140</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1027</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1096027</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1952</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2076385</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1908</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1988300</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3860</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4064685</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>762</v>
-      </c>
-      <c r="D26" s="7">
-        <v>754347</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H26" s="7">
-        <v>892</v>
-      </c>
-      <c r="I26" s="7">
-        <v>994660</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1654</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1749007</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3215</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3377618</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3326</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3532100</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6541</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6909718</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6483,8 +5544,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407988EA-C549-453B-A44B-94677D7B35FE}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85927A1C-C129-4D9A-99E0-121FF37D57B4}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6500,7 +5561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>411</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6601,49 +5662,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7">
-        <v>10997</v>
+        <v>79700</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>487</v>
+        <v>412</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>488</v>
+        <v>413</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>414</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I4" s="7">
-        <v>15575</v>
+        <v>85652</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>490</v>
+        <v>415</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>491</v>
+        <v>416</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="N4" s="7">
-        <v>26572</v>
+        <v>165352</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>419</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,49 +5713,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>410</v>
       </c>
       <c r="D5" s="7">
-        <v>61213</v>
+        <v>396166</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>421</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>376</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>673</v>
       </c>
       <c r="I5" s="7">
-        <v>70757</v>
+        <v>399685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>500</v>
+        <v>424</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="M5" s="7">
-        <v>188</v>
+        <v>1083</v>
       </c>
       <c r="N5" s="7">
-        <v>131971</v>
+        <v>795851</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>504</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,49 +5764,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="D6" s="7">
-        <v>29772</v>
+        <v>158320</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>505</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>506</v>
+        <v>430</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>431</v>
       </c>
       <c r="H6" s="7">
-        <v>93</v>
+        <v>416</v>
       </c>
       <c r="I6" s="7">
-        <v>44044</v>
+        <v>189200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>509</v>
+        <v>434</v>
       </c>
       <c r="M6" s="7">
-        <v>136</v>
+        <v>645</v>
       </c>
       <c r="N6" s="7">
-        <v>73816</v>
+        <v>347520</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>510</v>
+        <v>435</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>511</v>
+        <v>436</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>512</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,10 +5815,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>634186</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6769,10 +5830,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>242</v>
+        <v>1236</v>
       </c>
       <c r="I7" s="7">
-        <v>130376</v>
+        <v>674537</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6784,10 +5845,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>360</v>
+        <v>1965</v>
       </c>
       <c r="N7" s="7">
-        <v>232358</v>
+        <v>1308723</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6807,49 +5868,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>73084</v>
+        <v>165651</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>513</v>
+        <v>439</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="H8" s="7">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="I8" s="7">
-        <v>74868</v>
+        <v>163839</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>517</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
-        <v>201</v>
+        <v>396</v>
       </c>
       <c r="N8" s="7">
-        <v>147952</v>
+        <v>329490</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>518</v>
+        <v>443</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>519</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>520</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,49 +5919,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>348</v>
+        <v>593</v>
       </c>
       <c r="D9" s="7">
-        <v>340167</v>
+        <v>857738</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>522</v>
+        <v>447</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>523</v>
+        <v>448</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>858</v>
       </c>
       <c r="I9" s="7">
-        <v>356486</v>
+        <v>576008</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>524</v>
+        <v>449</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>526</v>
+        <v>451</v>
       </c>
       <c r="M9" s="7">
-        <v>895</v>
+        <v>1451</v>
       </c>
       <c r="N9" s="7">
-        <v>696653</v>
+        <v>1433747</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>527</v>
+        <v>452</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>528</v>
+        <v>453</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>529</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,49 +5970,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="D10" s="7">
-        <v>135344</v>
+        <v>169313</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>441</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>530</v>
+        <v>455</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>531</v>
+        <v>456</v>
       </c>
       <c r="H10" s="7">
-        <v>323</v>
+        <v>416</v>
       </c>
       <c r="I10" s="7">
-        <v>160657</v>
+        <v>218259</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>532</v>
+        <v>457</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>458</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>459</v>
       </c>
       <c r="M10" s="7">
-        <v>509</v>
+        <v>632</v>
       </c>
       <c r="N10" s="7">
-        <v>296002</v>
+        <v>387572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>460</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>536</v>
+        <v>461</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>537</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,10 +6021,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D11" s="7">
-        <v>548595</v>
+        <v>1192702</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6975,10 +6036,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>994</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>592011</v>
+        <v>958106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6990,10 +6051,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1605</v>
+        <v>2479</v>
       </c>
       <c r="N11" s="7">
-        <v>1140607</v>
+        <v>2150809</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7007,55 +6068,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D12" s="7">
-        <v>171205</v>
+        <v>131241</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>538</v>
+        <v>463</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>539</v>
+        <v>414</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>540</v>
+        <v>464</v>
       </c>
       <c r="H12" s="7">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="I12" s="7">
-        <v>179169</v>
+        <v>143169</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>543</v>
+        <v>467</v>
       </c>
       <c r="M12" s="7">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>350374</v>
+        <v>274409</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>544</v>
+        <v>468</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>545</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>546</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,49 +6125,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>593</v>
+        <v>441</v>
       </c>
       <c r="D13" s="7">
-        <v>690038</v>
+        <v>495262</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>548</v>
+        <v>471</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="H13" s="7">
-        <v>858</v>
+        <v>598</v>
       </c>
       <c r="I13" s="7">
-        <v>638145</v>
+        <v>654656</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>473</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
       <c r="M13" s="7">
-        <v>1451</v>
+        <v>1039</v>
       </c>
       <c r="N13" s="7">
-        <v>1328183</v>
+        <v>1149918</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>552</v>
+        <v>476</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>553</v>
+        <v>477</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>554</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,49 +6176,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7">
-        <v>177845</v>
+        <v>75833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>555</v>
+        <v>479</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>556</v>
+        <v>480</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="H14" s="7">
-        <v>416</v>
+        <v>228</v>
       </c>
       <c r="I14" s="7">
-        <v>242160</v>
+        <v>133353</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>559</v>
+        <v>483</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>560</v>
+        <v>484</v>
       </c>
       <c r="M14" s="7">
-        <v>632</v>
+        <v>327</v>
       </c>
       <c r="N14" s="7">
-        <v>420006</v>
+        <v>209187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>561</v>
+        <v>485</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>562</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>563</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,10 +6227,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>963</v>
+        <v>672</v>
       </c>
       <c r="D15" s="7">
-        <v>1039088</v>
+        <v>702336</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7181,10 +6242,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1043</v>
       </c>
       <c r="I15" s="7">
-        <v>1059474</v>
+        <v>931178</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7196,10 +6257,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2479</v>
+        <v>1715</v>
       </c>
       <c r="N15" s="7">
-        <v>2098562</v>
+        <v>1633514</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7213,55 +6274,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7">
-        <v>136641</v>
+        <v>270031</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>564</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>565</v>
+        <v>488</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>566</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
-        <v>217</v>
+        <v>398</v>
       </c>
       <c r="I16" s="7">
-        <v>154532</v>
+        <v>267803</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>567</v>
+        <v>490</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>568</v>
+        <v>491</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>569</v>
+        <v>492</v>
       </c>
       <c r="M16" s="7">
-        <v>349</v>
+        <v>703</v>
       </c>
       <c r="N16" s="7">
-        <v>291173</v>
+        <v>537835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
+        <v>493</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>570</v>
+        <v>494</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>571</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,49 +6331,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>441</v>
+        <v>548</v>
       </c>
       <c r="D17" s="7">
-        <v>509189</v>
+        <v>541161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>572</v>
+        <v>496</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>573</v>
+        <v>497</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>574</v>
+        <v>498</v>
       </c>
       <c r="H17" s="7">
-        <v>598</v>
+        <v>792</v>
       </c>
       <c r="I17" s="7">
-        <v>571933</v>
+        <v>607474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>576</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>577</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
-        <v>1039</v>
+        <v>1340</v>
       </c>
       <c r="N17" s="7">
-        <v>1081122</v>
+        <v>1148635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>578</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>579</v>
+        <v>502</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>580</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,49 +6382,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="D18" s="7">
-        <v>80489</v>
+        <v>111472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>581</v>
+        <v>504</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>582</v>
+        <v>505</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>583</v>
+        <v>506</v>
       </c>
       <c r="H18" s="7">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="I18" s="7">
-        <v>145507</v>
+        <v>214695</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>584</v>
+        <v>507</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>585</v>
+        <v>508</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>586</v>
+        <v>509</v>
       </c>
       <c r="M18" s="7">
-        <v>327</v>
+        <v>514</v>
       </c>
       <c r="N18" s="7">
-        <v>225997</v>
+        <v>326167</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>587</v>
+        <v>510</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>588</v>
+        <v>511</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>589</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,10 +6433,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>672</v>
+        <v>1000</v>
       </c>
       <c r="D19" s="7">
-        <v>726319</v>
+        <v>922664</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7387,10 +6448,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1043</v>
+        <v>1557</v>
       </c>
       <c r="I19" s="7">
-        <v>871973</v>
+        <v>1089973</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7402,10 +6463,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1715</v>
+        <v>2557</v>
       </c>
       <c r="N19" s="7">
-        <v>1598292</v>
+        <v>2012637</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7419,55 +6480,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>305</v>
+        <v>681</v>
       </c>
       <c r="D20" s="7">
-        <v>281113</v>
+        <v>646623</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>590</v>
+        <v>513</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>591</v>
+        <v>514</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>592</v>
+        <v>515</v>
       </c>
       <c r="H20" s="7">
-        <v>398</v>
+        <v>1004</v>
       </c>
       <c r="I20" s="7">
-        <v>289742</v>
+        <v>660463</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>594</v>
+        <v>517</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>595</v>
+        <v>518</v>
       </c>
       <c r="M20" s="7">
-        <v>703</v>
+        <v>1685</v>
       </c>
       <c r="N20" s="7">
-        <v>570855</v>
+        <v>1307086</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>596</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>597</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,49 +6537,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>548</v>
+        <v>1992</v>
       </c>
       <c r="D21" s="7">
-        <v>561414</v>
+        <v>2290327</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>599</v>
+        <v>521</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="H21" s="7">
-        <v>792</v>
+        <v>2921</v>
       </c>
       <c r="I21" s="7">
-        <v>612200</v>
+        <v>2237823</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>601</v>
+        <v>523</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>602</v>
+        <v>524</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>603</v>
+        <v>525</v>
       </c>
       <c r="M21" s="7">
-        <v>1340</v>
+        <v>4913</v>
       </c>
       <c r="N21" s="7">
-        <v>1173614</v>
+        <v>4528150</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>604</v>
+        <v>526</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>605</v>
+        <v>527</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>606</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,49 +6588,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>147</v>
+        <v>691</v>
       </c>
       <c r="D22" s="7">
-        <v>118183</v>
+        <v>514938</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>607</v>
+        <v>529</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>608</v>
+        <v>530</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>609</v>
+        <v>531</v>
       </c>
       <c r="H22" s="7">
-        <v>367</v>
+        <v>1427</v>
       </c>
       <c r="I22" s="7">
-        <v>243584</v>
+        <v>755508</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>610</v>
+        <v>532</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>611</v>
+        <v>531</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>612</v>
+        <v>533</v>
       </c>
       <c r="M22" s="7">
-        <v>514</v>
+        <v>2118</v>
       </c>
       <c r="N22" s="7">
-        <v>361767</v>
+        <v>1270446</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>613</v>
+        <v>534</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>614</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>615</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,10 +6639,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1000</v>
+        <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>960710</v>
+        <v>3451889</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7593,10 +6654,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1557</v>
+        <v>5352</v>
       </c>
       <c r="I23" s="7">
-        <v>1145526</v>
+        <v>3653794</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7608,10 +6669,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2557</v>
+        <v>8716</v>
       </c>
       <c r="N23" s="7">
-        <v>2106236</v>
+        <v>7105683</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7624,222 +6685,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>681</v>
-      </c>
-      <c r="D24" s="7">
-        <v>673039</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1004</v>
-      </c>
-      <c r="I24" s="7">
-        <v>713887</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1685</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1386926</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1992</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2162022</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2921</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2249521</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4913</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4411543</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>691</v>
-      </c>
-      <c r="D26" s="7">
-        <v>541634</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1427</v>
-      </c>
-      <c r="I26" s="7">
-        <v>835953</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1377587</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3364</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3376695</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5352</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3799360</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8716</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7176055</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
